--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Wnt1-Fzd4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Wnt1-Fzd4.xlsx
@@ -546,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>22.41709</v>
+        <v>26.532132</v>
       </c>
       <c r="N2">
-        <v>67.25127000000001</v>
+        <v>79.596396</v>
       </c>
       <c r="O2">
-        <v>0.3988455747018376</v>
+        <v>0.3960736634233649</v>
       </c>
       <c r="P2">
-        <v>0.3988455747018376</v>
+        <v>0.3960736634233648</v>
       </c>
       <c r="Q2">
-        <v>1.597606225393333</v>
+        <v>1.890874295288</v>
       </c>
       <c r="R2">
-        <v>14.37845602854</v>
+        <v>17.017868657592</v>
       </c>
       <c r="S2">
-        <v>0.3988455747018376</v>
+        <v>0.3960736634233649</v>
       </c>
       <c r="T2">
-        <v>0.3988455747018376</v>
+        <v>0.3960736634233648</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>50.345671</v>
       </c>
       <c r="O3">
-        <v>0.2985839238983091</v>
+        <v>0.2505213219764053</v>
       </c>
       <c r="P3">
-        <v>0.2985839238983091</v>
+        <v>0.2505213219764053</v>
       </c>
       <c r="Q3">
         <v>1.196000572349111</v>
@@ -632,10 +632,10 @@
         <v>10.764005151142</v>
       </c>
       <c r="S3">
-        <v>0.2985839238983091</v>
+        <v>0.2505213219764053</v>
       </c>
       <c r="T3">
-        <v>0.2985839238983091</v>
+        <v>0.2505213219764053</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.00595566666667</v>
+        <v>23.67385</v>
       </c>
       <c r="N4">
-        <v>51.017867</v>
+        <v>71.02154999999999</v>
       </c>
       <c r="O4">
-        <v>0.3025705013998533</v>
+        <v>0.3534050146002298</v>
       </c>
       <c r="P4">
-        <v>0.3025705013998533</v>
+        <v>0.3534050146002298</v>
       </c>
       <c r="Q4">
-        <v>1.211969111148222</v>
+        <v>1.687172159233333</v>
       </c>
       <c r="R4">
-        <v>10.907722000334</v>
+        <v>15.1845494331</v>
       </c>
       <c r="S4">
-        <v>0.3025705013998533</v>
+        <v>0.3534050146002298</v>
       </c>
       <c r="T4">
-        <v>0.3025705013998533</v>
+        <v>0.3534050146002298</v>
       </c>
     </row>
   </sheetData>
